--- a/SchedulingData/dynamic9/pso/scheduling1_15.xlsx
+++ b/SchedulingData/dynamic9/pso/scheduling1_15.xlsx
@@ -462,154 +462,154 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>66</v>
+        <v>50.24</v>
       </c>
       <c r="E2" t="n">
-        <v>25.58</v>
+        <v>26.656</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>50.24</v>
       </c>
       <c r="D3" t="n">
-        <v>78.94</v>
+        <v>121.04</v>
       </c>
       <c r="E3" t="n">
-        <v>26.256</v>
+        <v>21.196</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>45.28</v>
+        <v>57.7</v>
       </c>
       <c r="E4" t="n">
-        <v>26.172</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>45.28</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>127.24</v>
+        <v>66</v>
       </c>
       <c r="E5" t="n">
-        <v>23.576</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>78.94</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>117.52</v>
+        <v>90.5</v>
       </c>
       <c r="E6" t="n">
-        <v>23.528</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>117.52</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>195.12</v>
+        <v>45.28</v>
       </c>
       <c r="E7" t="n">
-        <v>19.868</v>
+        <v>26.172</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D8" t="n">
-        <v>84.52</v>
+        <v>118.7</v>
       </c>
       <c r="E8" t="n">
-        <v>26.208</v>
+        <v>21.94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>84.52</v>
+        <v>57.7</v>
       </c>
       <c r="D9" t="n">
-        <v>138.24</v>
+        <v>135.3</v>
       </c>
       <c r="E9" t="n">
-        <v>21.476</v>
+        <v>21.78</v>
       </c>
     </row>
     <row r="10">
@@ -618,17 +618,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>121.04</v>
       </c>
       <c r="D10" t="n">
-        <v>77.3</v>
+        <v>170.36</v>
       </c>
       <c r="E10" t="n">
-        <v>26.4</v>
+        <v>17.404</v>
       </c>
     </row>
     <row r="11">
@@ -637,188 +637,188 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>66</v>
+        <v>118.7</v>
       </c>
       <c r="D11" t="n">
-        <v>118.7</v>
+        <v>186.6</v>
       </c>
       <c r="E11" t="n">
-        <v>21.44</v>
+        <v>17.78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>127.24</v>
+        <v>135.3</v>
       </c>
       <c r="D12" t="n">
-        <v>208.86</v>
+        <v>179.28</v>
       </c>
       <c r="E12" t="n">
-        <v>19.544</v>
+        <v>19.492</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>118.7</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>163.44</v>
+        <v>62.02</v>
       </c>
       <c r="E13" t="n">
-        <v>18.096</v>
+        <v>25.968</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>77.3</v>
+        <v>62.02</v>
       </c>
       <c r="D14" t="n">
-        <v>132.9</v>
+        <v>145.64</v>
       </c>
       <c r="E14" t="n">
-        <v>21.48</v>
+        <v>21.236</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>138.24</v>
+        <v>179.28</v>
       </c>
       <c r="D15" t="n">
-        <v>209.24</v>
+        <v>233.56</v>
       </c>
       <c r="E15" t="n">
-        <v>16.016</v>
+        <v>15.684</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>132.9</v>
+        <v>45.28</v>
       </c>
       <c r="D16" t="n">
-        <v>198.78</v>
+        <v>98.08</v>
       </c>
       <c r="E16" t="n">
-        <v>18.512</v>
+        <v>22.032</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>163.44</v>
+        <v>90.5</v>
       </c>
       <c r="D17" t="n">
-        <v>221.56</v>
+        <v>167.54</v>
       </c>
       <c r="E17" t="n">
-        <v>14.884</v>
+        <v>21.496</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>208.86</v>
+        <v>186.6</v>
       </c>
       <c r="D18" t="n">
-        <v>251.08</v>
+        <v>237.62</v>
       </c>
       <c r="E18" t="n">
-        <v>16.952</v>
+        <v>14.788</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>195.12</v>
+        <v>145.64</v>
       </c>
       <c r="D19" t="n">
-        <v>249.2</v>
+        <v>202.74</v>
       </c>
       <c r="E19" t="n">
-        <v>17.58</v>
+        <v>17.636</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>249.2</v>
+        <v>202.74</v>
       </c>
       <c r="D20" t="n">
-        <v>310.24</v>
+        <v>259.54</v>
       </c>
       <c r="E20" t="n">
-        <v>14.096</v>
+        <v>14.596</v>
       </c>
     </row>
     <row r="21">
@@ -827,36 +827,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>167.54</v>
       </c>
       <c r="D21" t="n">
-        <v>58.6</v>
+        <v>239.22</v>
       </c>
       <c r="E21" t="n">
-        <v>25.84</v>
+        <v>17.448</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>209.24</v>
+        <v>98.08</v>
       </c>
       <c r="D22" t="n">
-        <v>281.74</v>
+        <v>149.12</v>
       </c>
       <c r="E22" t="n">
-        <v>12.376</v>
+        <v>18.548</v>
       </c>
     </row>
     <row r="23">
@@ -865,155 +865,155 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>221.56</v>
+        <v>237.62</v>
       </c>
       <c r="D23" t="n">
-        <v>273.26</v>
+        <v>293.5</v>
       </c>
       <c r="E23" t="n">
-        <v>11.844</v>
+        <v>11.82</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>310.24</v>
+        <v>149.12</v>
       </c>
       <c r="D24" t="n">
-        <v>351.46</v>
+        <v>206.28</v>
       </c>
       <c r="E24" t="n">
-        <v>11.104</v>
+        <v>15.952</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>58.6</v>
+        <v>170.36</v>
       </c>
       <c r="D25" t="n">
-        <v>106.4</v>
+        <v>213.84</v>
       </c>
       <c r="E25" t="n">
-        <v>21.7</v>
+        <v>14.676</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>106.4</v>
+        <v>259.54</v>
       </c>
       <c r="D26" t="n">
-        <v>192.58</v>
+        <v>332.04</v>
       </c>
       <c r="E26" t="n">
-        <v>17.652</v>
+        <v>10.936</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>198.78</v>
+        <v>206.28</v>
       </c>
       <c r="D27" t="n">
-        <v>277.96</v>
+        <v>260.02</v>
       </c>
       <c r="E27" t="n">
-        <v>14.704</v>
+        <v>12.208</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>251.08</v>
+        <v>233.56</v>
       </c>
       <c r="D28" t="n">
-        <v>317.98</v>
+        <v>290.68</v>
       </c>
       <c r="E28" t="n">
-        <v>12.872</v>
+        <v>13.092</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>277.96</v>
+        <v>239.22</v>
       </c>
       <c r="D29" t="n">
-        <v>359.9</v>
+        <v>289.9</v>
       </c>
       <c r="E29" t="n">
-        <v>11.12</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>192.58</v>
+        <v>260.02</v>
       </c>
       <c r="D30" t="n">
-        <v>243.26</v>
+        <v>308.44</v>
       </c>
       <c r="E30" t="n">
-        <v>14.704</v>
+        <v>8.996</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>243.26</v>
+        <v>213.84</v>
       </c>
       <c r="D31" t="n">
-        <v>293.26</v>
+        <v>268.94</v>
       </c>
       <c r="E31" t="n">
-        <v>11.324</v>
+        <v>11.296</v>
       </c>
     </row>
   </sheetData>
